--- a/用例数据/沪B/B转H/T/清算结果.xlsx
+++ b/用例数据/沪B/B转H/T/清算结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="todaytraderslt" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="377">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -1153,6 +1153,12 @@
   <si>
     <t>0000888888</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20221013000000</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -1508,51 +1514,51 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1686,7 +1692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -2034,7 +2040,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -2266,7 +2272,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -2382,7 +2388,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -2498,7 +2504,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -2614,7 +2620,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -2730,7 +2736,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -2846,7 +2852,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -2962,7 +2968,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -3078,7 +3084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -3194,7 +3200,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -3310,7 +3316,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -3426,7 +3432,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -3542,21 +3548,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:AR1"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3569,135 +3575,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="26" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.5" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="15" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6.5" bestFit="1" customWidth="1"/>
     <col min="64" max="65" width="15" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.5" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="15" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="85" max="86" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="97" max="98" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="85" max="86" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="97" max="98" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.5" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="15" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="106" max="108" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="106" max="108" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="22.625" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="15" bestFit="1" customWidth="1"/>
-    <col min="112" max="113" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="115" max="116" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="118" max="119" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="112" max="113" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="115" max="116" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="118" max="119" width="12.75" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="15" bestFit="1" customWidth="1"/>
-    <col min="121" max="122" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="121" max="122" width="17.25" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="15" bestFit="1" customWidth="1"/>
-    <col min="124" max="125" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="127" max="128" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="130" max="131" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="124" max="125" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="127" max="128" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="130" max="131" width="13.875" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="15" bestFit="1" customWidth="1"/>
-    <col min="133" max="134" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="133" max="134" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="12.75" bestFit="1" customWidth="1"/>
     <col min="136" max="137" width="15" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -4119,7 +4125,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>209</v>
       </c>
@@ -4508,7 +4514,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>240</v>
       </c>
@@ -4897,13 +4903,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4918,14 +4924,14 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4936,7 +4942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -4947,7 +4953,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -4958,7 +4964,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -4969,7 +4975,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -4980,7 +4986,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -4991,7 +4997,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -5002,7 +5008,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -5013,7 +5019,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -5024,7 +5030,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -5035,7 +5041,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -5046,7 +5052,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -5057,7 +5063,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -5068,7 +5074,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -5079,7 +5085,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -5090,7 +5096,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -5101,7 +5107,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -5112,19 +5118,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5133,18 +5139,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CY10"/>
+  <dimension ref="A1:DA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -5455,21 +5461,21 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>241</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>48</v>
@@ -5490,10 +5496,10 @@
         <v>224</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>46</v>
+        <v>375</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>51</v>
@@ -5565,7 +5571,7 @@
         <v>210</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>222</v>
@@ -5592,7 +5598,7 @@
         <v>56</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>46</v>
+        <v>375</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>44</v>
@@ -5613,7 +5619,7 @@
         <v>44</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>56</v>
+        <v>376</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>59</v>
@@ -5720,22 +5726,28 @@
       <c r="CY2" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="CZ2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>241</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>48</v>
@@ -5756,10 +5768,10 @@
         <v>224</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>46</v>
+        <v>375</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>51</v>
@@ -5831,7 +5843,7 @@
         <v>210</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="AL3" s="1" t="s">
         <v>222</v>
@@ -5858,7 +5870,7 @@
         <v>56</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>46</v>
+        <v>375</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>44</v>
@@ -5879,7 +5891,7 @@
         <v>44</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>56</v>
+        <v>376</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>59</v>
@@ -5986,14 +5998,17 @@
       <c r="CY3" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="CZ3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6008,9 +6023,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6270,7 +6285,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -6530,7 +6545,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -6790,16 +6805,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:CH1"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6815,36 +6830,36 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>349</v>
       </c>
@@ -6930,7 +6945,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>366</v>
       </c>
@@ -6986,11 +7001,11 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
